--- a/output/20221109/tables/wald_test_traits_noeffort.xlsx
+++ b/output/20221109/tables/wald_test_traits_noeffort.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erb32/github/cambodia_biodiversity2/output/20221109/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739095B7-EC05-9B46-A8C0-33AC82EB0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500"/>
   </bookViews>
   <sheets>
-    <sheet name="Traits models NE" sheetId="1" r:id="rId2"/>
+    <sheet name="Traits models NE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="21">
   <si>
     <t>Outcome</t>
   </si>
@@ -81,22 +88,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -109,22 +132,339 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="13.5" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="14.6640625" bestFit="true" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -141,7 +481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -151,14 +491,14 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>0.22492295503616333</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -168,14 +508,14 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0.45524269342422485</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -185,14 +525,14 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>0.8261529803276062</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -202,14 +542,14 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>0.37493154406547546</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -219,14 +559,14 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0.33915629982948303</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -236,14 +576,14 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>0.75273382663726807</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -253,14 +593,14 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>0.68043416738510132</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -270,14 +610,14 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>0.66721129417419434</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -287,14 +627,14 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>0.87394988536834717</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -304,14 +644,14 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>0.17957305908203125</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -321,14 +661,14 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>0.68003618717193604</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -338,14 +678,14 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>0.99378842115402222</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -355,14 +695,14 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>0.98329001665115356</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -372,31 +712,31 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>0.9386858344078064</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.08213961124420166</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -406,14 +746,14 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0.725505530834198</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -423,14 +763,14 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>0.64503508806228638</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -440,14 +780,14 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>0.15244807302951813</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -457,14 +797,14 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>0.52575159072875977</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -474,14 +814,14 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>0.44292920827865601</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -491,14 +831,14 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>0.43141734600067139</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -508,14 +848,14 @@
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>0.49534112215042114</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -525,14 +865,14 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>0.50399065017700195</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -542,14 +882,14 @@
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>0.36996752023696899</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -559,14 +899,14 @@
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>0.32998061180114746</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -576,14 +916,14 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>0.72405505180358887</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -593,14 +933,14 @@
       <c r="C28" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>0.3532261848449707</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -610,14 +950,14 @@
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>0.63969218730926514</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -627,14 +967,14 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>0.42893216013908386</v>
       </c>
       <c r="E30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -644,14 +984,14 @@
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>0.19185727834701538</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -661,14 +1001,14 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>0.48730060458183289</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -678,14 +1018,14 @@
       <c r="C33" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>0.78814530372619629</v>
       </c>
       <c r="E33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -695,14 +1035,14 @@
       <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>0.1290854811668396</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -712,14 +1052,14 @@
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>0.80752772092819214</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -729,14 +1069,14 @@
       <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4">
         <v>0.58122032880783081</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -746,14 +1086,14 @@
       <c r="C37" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <v>0.60806739330291748</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -763,14 +1103,14 @@
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>0.36530253291130066</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -780,14 +1120,14 @@
       <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>0.5871393084526062</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -797,14 +1137,14 @@
       <c r="C40" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>0.67803269624710083</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -814,14 +1154,14 @@
       <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <v>0.22978244721889496</v>
       </c>
       <c r="E41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -831,14 +1171,14 @@
       <c r="C42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <v>0.82767105102539062</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -848,14 +1188,14 @@
       <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <v>0.39864525198936462</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -865,14 +1205,14 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="4">
         <v>0.55899101495742798</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -882,14 +1222,14 @@
       <c r="C45" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="4">
         <v>0.51585888862609863</v>
       </c>
       <c r="E45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -899,7 +1239,7 @@
       <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="4">
         <v>0.21542359888553619</v>
       </c>
       <c r="E46" t="s">
@@ -907,5 +1247,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/20221109/tables/wald_test_traits_noeffort.xlsx
+++ b/output/20221109/tables/wald_test_traits_noeffort.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="21">
   <si>
     <t>Outcome</t>
   </si>
@@ -747,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="4">
-        <v>0.725505530834198</v>
+        <v>0.062853783369064331</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -764,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="4">
-        <v>0.64503508806228638</v>
+        <v>0.36311545968055725</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -781,7 +781,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>0.15244807302951813</v>
+        <v>0.73902970552444458</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -798,7 +798,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="4">
-        <v>0.52575159072875977</v>
+        <v>0.22195442020893097</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
@@ -815,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="4">
-        <v>0.44292920827865601</v>
+        <v>0.2039545476436615</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -832,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="4">
-        <v>0.43141734600067139</v>
+        <v>0.060609735548496246</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -849,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="4">
-        <v>0.49534112215042114</v>
+        <v>0.90907031297683716</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -866,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="4">
-        <v>0.50399065017700195</v>
+        <v>0.70409172773361206</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -883,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="4">
-        <v>0.36996752023696899</v>
+        <v>0.046301256865262985</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -900,7 +900,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="4">
-        <v>0.32998061180114746</v>
+        <v>0.094824247062206268</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
@@ -917,7 +917,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="4">
-        <v>0.72405505180358887</v>
+        <v>0.76530808210372925</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
@@ -934,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="4">
-        <v>0.3532261848449707</v>
+        <v>0.91357076168060303</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="4">
-        <v>0.63969218730926514</v>
+        <v>0.14032657444477081</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -968,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="4">
-        <v>0.42893216013908386</v>
+        <v>0.44705137610435486</v>
       </c>
       <c r="E30" t="s">
         <v>20</v>
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="4">
-        <v>0.19185727834701538</v>
+        <v>0.52541369199752808</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="4">
-        <v>0.48730060458183289</v>
+        <v>0.47234773635864258</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="4">
-        <v>0.78814530372619629</v>
+        <v>0.6911700963973999</v>
       </c>
       <c r="E33" t="s">
         <v>20</v>
@@ -1036,7 +1036,7 @@
         <v>17</v>
       </c>
       <c r="D34" s="4">
-        <v>0.1290854811668396</v>
+        <v>0.13295947015285492</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>
@@ -1053,7 +1053,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="4">
-        <v>0.80752772092819214</v>
+        <v>0.73065406084060669</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -1070,7 +1070,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="4">
-        <v>0.58122032880783081</v>
+        <v>0.60111868381500244</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
@@ -1087,7 +1087,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="4">
-        <v>0.60806739330291748</v>
+        <v>0.84555184841156006</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -1104,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="4">
-        <v>0.36530253291130066</v>
+        <v>0.28247827291488647</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1121,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="4">
-        <v>0.5871393084526062</v>
+        <v>0.58727574348449707</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1138,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="4">
-        <v>0.67803269624710083</v>
+        <v>0.42868471145629883</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="4">
-        <v>0.22978244721889496</v>
+        <v>0.13384614884853363</v>
       </c>
       <c r="E41" t="s">
         <v>20</v>
@@ -1172,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="4">
-        <v>0.82767105102539062</v>
+        <v>0.89993071556091309</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
@@ -1189,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="D43" s="4">
-        <v>0.39864525198936462</v>
+        <v>0.89632242918014526</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="4">
-        <v>0.55899101495742798</v>
+        <v>0.57144844532012939</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
@@ -1223,7 +1223,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="4">
-        <v>0.51585888862609863</v>
+        <v>0.61684751510620117</v>
       </c>
       <c r="E45" t="s">
         <v>20</v>
@@ -1240,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="D46" s="4">
-        <v>0.21542359888553619</v>
+        <v>0.37054547667503357</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
